--- a/STATS/Rajasthan Royals/Ankit Rajpoot.xlsx
+++ b/STATS/Rajasthan Royals/Ankit Rajpoot.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,33 +443,91 @@
         <v>Ankit Rajpoot</v>
       </c>
       <c r="B3">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" t="str">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D3" t="str">
         <v>5</v>
       </c>
       <c r="E3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="str">
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>140.00</v>
+        <v>40.00</v>
       </c>
       <c r="H3" t="str">
         <v>Rajasthan Royals</v>
       </c>
       <c r="I3" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Ankit Rajpoot</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4" t="str">
+        <v>7</v>
+      </c>
+      <c r="D4" t="str">
+        <v>5</v>
+      </c>
+      <c r="E4" t="str">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G4" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Kolkata Knight Riders</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Ankit Rajpoot</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7</v>
+      </c>
+      <c r="D5" t="str">
+        <v>5</v>
+      </c>
+      <c r="E5" t="str">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <v>0</v>
+      </c>
+      <c r="G5" t="str">
+        <v>140.00</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="I5" t="str">
         <v>Kolkata Knight Riders</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I5"/>
   </ignoredErrors>
 </worksheet>
 </file>